--- a/TestData/FutureElectronicsData.xlsx
+++ b/TestData/FutureElectronicsData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,6 +445,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -454,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
